--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>169103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>52.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>004278</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>东方红智逸沪港深定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>57.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>49.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.91</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008303</t>
+          <t>005760</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票A</t>
+          <t>富国周期优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>36.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008304</t>
+          <t>003396</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票C</t>
+          <t>东方红优享红利沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>26.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004278</t>
+          <t>008303</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方红智逸沪港深定期开放混合</t>
+          <t>宝盈龙头优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.38</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>169103</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>95.48</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003396</t>
+          <t>008304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
+          <t>宝盈龙头优选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005760</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国周期优势混合</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004278</t>
+          <t>169103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红智逸沪港深定期开放混合</t>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.14</t>
+          <t>50.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>004278</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>东方红智逸沪港深定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>56.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5592</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009783</t>
+          <t>003396</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
+          <t>东方红优享红利沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>169103</t>
+          <t>010549</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
+          <t>富国均衡策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>73.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>52.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003396</t>
+          <t>005760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
+          <t>富国周期优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005732</t>
+          <t>010755</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国臻选成长灵活配置混合</t>
+          <t>博道睿见一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75.06</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005760</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国周期优势混合</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.76</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010549</t>
+          <t>009783</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国均衡策略混合</t>
+          <t>富国兴泉回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52.12</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>005732</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>富国臻选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,286 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6616</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1807,4 +1808,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1816,7 +1817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1827,17 +1828,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1847,14 +1868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.59</v>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1863,14 +1906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1879,14 +1944,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.1</v>
       </c>
     </row>
     <row r="5">
@@ -1895,13 +1982,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
         <v>9.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2025,7 +2026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2036,17 +2037,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2056,14 +2077,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.5</v>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0768</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2072,14 +2115,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.59</v>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2088,14 +2153,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.720000000000001</v>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2104,14 +2191,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.1</v>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2120,13 +2229,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
         <v>9.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2310,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,17 +2322,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2341,14 +2362,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.79</v>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2357,14 +2400,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -2373,14 +2438,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.59</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2389,14 +2476,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.720000000000001</v>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2405,14 +2514,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.1</v>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2421,13 +2552,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.720000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>9</v>
       </c>
       <c r="D7" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
         <v>9.19</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,395 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>169103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4498</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004278</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红智逸沪港深定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>57.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0886</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501087</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9437</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国周期优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3605</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003396</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>26.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1264</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1489</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -855,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -906,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>169103</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.51</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>86.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3589</t>
+          <t>0.6071</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -954,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.14</t>
+          <t>30.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5592</t>
+          <t>0.6037</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -982,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003396</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6192</t>
+          <t>0.1488</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1020,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010549</t>
+          <t>004099</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国均衡策略混合</t>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>73.24</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>52.12</t>
+          <t>84.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3476</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1058,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005760</t>
+          <t>012758</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国周期优势混合</t>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.76</t>
+          <t>86.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7946</t>
+          <t>0.0206</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1096,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>001942</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5934</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1134,112 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009782</t>
+          <t>001943</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国兴泉回报12个月持有期混合A</t>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58.86</t>
+          <t>87.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5397</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009783</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国兴泉回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>58.86</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2164</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005732</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国臻选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>75.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0686</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +948,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1314,26 +988,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.24</t>
+          <t>40.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>57.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3701</t>
+          <t>1.0768</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1342,36 +1016,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002803</t>
+          <t>004278</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红沪港深灵活配置混合</t>
+          <t>东方红智逸沪港深定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.44</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9224</t>
+          <t>0.6640</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1380,36 +1054,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004278</t>
+          <t>012744</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红智逸沪港深定期开放混合</t>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.46</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.51</t>
+          <t>84.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8393</t>
+          <t>0.5106</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1428,26 +1102,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4284</t>
+          <t>0.4777</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1456,36 +1130,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>004099</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>93.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1272</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1494,36 +1168,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>012758</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.45</t>
+          <t>84.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0229</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1532,6 +1206,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4745</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7614</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1806,214 +1688,6 @@
       </c>
       <c r="H7" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>169103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>47.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4745</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004278</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红智逸沪港深定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7614</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012744</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2522</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012758</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +1722,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2088,26 +1762,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.03</t>
+          <t>53.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.34</t>
+          <t>88.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0768</t>
+          <t>3.3701</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2116,36 +1790,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004278</t>
+          <t>002803</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红智逸沪港深定期开放混合</t>
+          <t>东方红沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>68.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6640</t>
+          <t>2.9224</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2154,36 +1828,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>004278</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
+          <t>东方红智逸沪港深定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>37.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.96</t>
+          <t>33.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5106</t>
+          <t>1.8393</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2202,26 +1876,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>26.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4777</t>
+          <t>1.4284</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2230,36 +1904,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.07</t>
+          <t>81.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.1272</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2268,36 +1942,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012758</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.96</t>
+          <t>81.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +1985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2332,7 +2006,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2362,36 +2036,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012744</t>
+          <t>169103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金A</t>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>50.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6071</t>
+          <t>3.3589</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2410,26 +2084,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>56.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.41</t>
+          <t>33.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6037</t>
+          <t>2.5592</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2438,36 +2112,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>003396</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>东方红优享红利沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>22.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1488</t>
+          <t>1.6192</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2476,36 +2150,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004099</t>
+          <t>010549</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+          <t>富国均衡策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>73.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.29</t>
+          <t>52.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>1.3476</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2514,36 +2188,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012758</t>
+          <t>005760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信品质生活混合型证券投资基金C</t>
+          <t>富国周期优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>80.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0206</t>
+          <t>0.7946</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2552,36 +2226,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001942</t>
+          <t>010755</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+          <t>博道睿见一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>92.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.5934</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2590,36 +2264,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001943</t>
+          <t>009782</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+          <t>富国兴泉回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.24</t>
+          <t>58.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.5397</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2633,144 +2383,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.720000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.79</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>5.59</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>9.720000000000001</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>9</v>
       </c>
       <c r="D8" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
         <v>9.19</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1406,288 +1707,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002803</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>58.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0376</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>169103</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8259</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004278</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红智逸沪港深定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9355</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003396</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6616</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011444</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信瑞裕混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1314</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011445</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信瑞裕混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1752,36 +1771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>169103</t>
+          <t>002803</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
+          <t>东方红沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.24</t>
+          <t>58.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3701</t>
+          <t>2.0376</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1790,32 +1809,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002803</t>
+          <t>169103</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红沪港深灵活配置混合</t>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.44</t>
+          <t>45.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>83.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9224</t>
+          <t>1.8259</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1838,26 +1857,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.46</t>
+          <t>35.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.51</t>
+          <t>30.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8393</t>
+          <t>0.9355</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1876,26 +1895,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>83.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4284</t>
+          <t>0.6616</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1904,36 +1923,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>011444</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>创金合信瑞裕混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1272</t>
+          <t>0.1314</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1942,36 +1961,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>011445</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>创金合信瑞裕混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.45</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1980,6 +1997,290 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2377,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02869-绿城服务.xlsx
+++ b/数据整理/stocks/港股/02869-绿城服务.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.79</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5.59</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>9.720000000000001</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>9</v>
       </c>
       <c r="D9" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
         <v>9.19</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1222,7 +1883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1506,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1707,288 +2368,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002803</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>58.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0376</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>169103</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8259</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004278</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红智逸沪港深定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>30.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9355</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003396</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6616</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011444</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信瑞裕混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1314</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011445</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信瑞裕混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2053,36 +2432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>169103</t>
+          <t>002803</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
+          <t>东方红沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.24</t>
+          <t>58.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.3701</t>
+          <t>2.0376</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2091,32 +2470,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002803</t>
+          <t>169103</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红沪港深灵活配置混合</t>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.44</t>
+          <t>45.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>83.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9224</t>
+          <t>1.8259</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2139,26 +2518,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37.46</t>
+          <t>35.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.51</t>
+          <t>30.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8393</t>
+          <t>0.9355</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2177,26 +2556,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>19.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>83.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4284</t>
+          <t>0.6616</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2205,36 +2584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>011444</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>创金合信瑞裕混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1272</t>
+          <t>0.1314</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2243,36 +2622,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>011445</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>创金合信瑞裕混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.45</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2281,6 +2658,290 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002803</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004278</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智逸沪港深定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2676,402 +3337,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>169103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52.57</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4498</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004278</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红智逸沪港深定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>57.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0886</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501087</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9437</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国周期优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3605</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003396</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>26.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1264</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1489</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0144</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>